--- a/docs/deliverable 2/Getana_Deliverable_2_TeamMemberReport_2.xlsx
+++ b/docs/deliverable 2/Getana_Deliverable_2_TeamMemberReport_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C287B-78EE-3146-8E2B-5D1E27A858C3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C8B5B-3D41-964A-9E3F-C71F841AE108}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arpit" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Team member name:</t>
   </si>
@@ -81,6 +81,51 @@
   </si>
   <si>
     <t>Product Owner, Development Team</t>
+  </si>
+  <si>
+    <t>Unfamiliarity with Android Studio/Google Maps API</t>
+  </si>
+  <si>
+    <t>Contributed to proposal presentation slideshow; Contributed to project implementation plan; Partcipated in focus group; Particpated in proposal presentation; Started work on Maps API code implementation</t>
+  </si>
+  <si>
+    <t>Becoming more comfortable with Studio/Maps</t>
+  </si>
+  <si>
+    <t>Scheduling conflicts</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Contributed to proposal presentation slideshow; Contributed to project implementation plan; Organized focus group participants; Led focus group meeting and presented mockups; Particpated in proposal presentation; Started work on user interface for app;</t>
+  </si>
+  <si>
+    <t>Contributed to proposal presentation slideshow; Contributed to project implementation plan; Partcipated in focus group; Particpated in proposal presentation; Started work on user interface for app; Updated product backlog for beginning and end of sprint</t>
+  </si>
+  <si>
+    <t>Was sick during much of Sprint 2</t>
+  </si>
+  <si>
+    <t>Busy schedule/Other coursework</t>
+  </si>
+  <si>
+    <t>Problems with Android Studio installation</t>
+  </si>
+  <si>
+    <t>Resolved problems with Android Studio</t>
+  </si>
+  <si>
+    <t>Contributed to proposal presentation slideshow; Contributed to project implementation plan; Helped moderate focus group meeting; Particpated in proposal presentation; Completed backend functionality for saving and loading schedules; Implemented rudimentaryuser activities to be built upon; Added unique Maps API key to project; Updated platform document;</t>
+  </si>
+  <si>
+    <t>Contributed to proposal presentation slideshow; Contributed to project implementation plan; Partcipated in focus group; Particpated in proposal presentation; Started work on route/map display implementation;</t>
+  </si>
+  <si>
+    <t>Busy schedule/other coursework</t>
+  </si>
+  <si>
+    <t>Contributed to project implementation plan; Partcipated/took notes in focus group meeting; Particpated in proposal presentation; Completed hashmap for builing names to coordinates; Updated Kanban board; Completed Sprint 2 review; Created and updated sprint 2 backlog; Updated daily scrum report; Updated team member report; Completed focus group document with results;</t>
   </si>
 </sst>
 </file>
@@ -123,10 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,14 +493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="179" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="72.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="1025" width="11.5"/>
   </cols>
   <sheetData>
@@ -482,11 +530,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="52" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -500,10 +550,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -520,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -557,11 +613,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="117" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -575,10 +633,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +660,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -632,11 +696,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="91" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -650,10 +716,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -670,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -707,11 +779,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="78" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -725,10 +799,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -745,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -782,11 +862,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="104" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -800,10 +882,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -820,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="173" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -857,11 +945,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="52" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -875,10 +965,16 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
